--- a/data/trans_orig/Q64A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q64A_R-Habitat-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>102,11; 125,61</t>
+          <t>102,98; 126,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>111,46; 140,27</t>
+          <t>112,32; 141,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>109,7; 139,21</t>
+          <t>108,93; 140,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>131,44; 161,68</t>
+          <t>132,74; 161,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>54,25; 80,28</t>
+          <t>53,72; 77,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>73,23; 104,54</t>
+          <t>73,35; 105,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>75,16; 102,66</t>
+          <t>76,27; 103,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>100,15; 122,33</t>
+          <t>99,77; 121,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>91,54; 110,14</t>
+          <t>92,07; 108,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>101,46; 122,99</t>
+          <t>102,24; 124,83</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>99,51; 121,81</t>
+          <t>99,36; 120,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>121,83; 141,28</t>
+          <t>121,04; 141,19</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,26; 113,7</t>
+          <t>94,27; 112,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>109,44; 133,99</t>
+          <t>111,55; 134,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>104,85; 127,74</t>
+          <t>104,4; 128,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>42,5; 142,52</t>
+          <t>42,05; 143,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>65,5; 87,5</t>
+          <t>65,45; 88,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>70,39; 93,76</t>
+          <t>71,2; 94,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>76,95; 101,46</t>
+          <t>77,85; 100,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>99,73; 117,31</t>
+          <t>100,02; 116,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,24; 101,99</t>
+          <t>87,52; 102,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>97,79; 114,81</t>
+          <t>98,12; 114,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>96,16; 113,46</t>
+          <t>96,71; 113,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>53,85; 127,96</t>
+          <t>52,07; 128,47</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>102,59; 125,09</t>
+          <t>102,25; 124,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>118,41; 146,56</t>
+          <t>118,21; 146,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,45; 114,68</t>
+          <t>92,02; 116,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>128,47; 156,63</t>
+          <t>128,06; 156,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,13; 81,82</t>
+          <t>56,47; 80,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>75,49; 102,27</t>
+          <t>76,39; 103,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>64,97; 82,12</t>
+          <t>63,91; 82,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>107,21; 130,12</t>
+          <t>106,61; 129,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>89,73; 106,52</t>
+          <t>89,84; 107,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>103,69; 124,74</t>
+          <t>104,09; 124,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>83,11; 98,31</t>
+          <t>83,43; 99,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>122,61; 141,98</t>
+          <t>122,09; 141,83</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,76; 104,59</t>
+          <t>88,21; 104,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>114,75; 138,65</t>
+          <t>113,9; 138,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>114,97; 138,62</t>
+          <t>115,43; 138,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>136,46; 160,93</t>
+          <t>136,18; 160,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>68,7; 86,39</t>
+          <t>68,15; 87,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,53; 99,91</t>
+          <t>77,67; 100,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100,11; 125,05</t>
+          <t>99,74; 126,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>78,5; 133,75</t>
+          <t>86,9; 133,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>82,38; 94,3</t>
+          <t>82,34; 94,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>102,27; 118,94</t>
+          <t>102,06; 118,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>111,86; 128,84</t>
+          <t>112,03; 129,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>107,45; 142,59</t>
+          <t>109,57; 143,18</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>100,94; 110,44</t>
+          <t>100,34; 109,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>119,12; 132,65</t>
+          <t>120,03; 132,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>111,33; 123,59</t>
+          <t>110,99; 123,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>79,96; 145,86</t>
+          <t>76,02; 145,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>67,54; 78,61</t>
+          <t>67,85; 78,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>80,14; 92,21</t>
+          <t>80,29; 92,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>85,77; 97,87</t>
+          <t>85,53; 97,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>101,83; 119,87</t>
+          <t>98,68; 119,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>90,49; 98,06</t>
+          <t>90,5; 98,07</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>105,17; 114,86</t>
+          <t>105,29; 114,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>101,7; 110,55</t>
+          <t>102,3; 111,09</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>91,88; 132,0</t>
+          <t>85,53; 131,89</t>
         </is>
       </c>
     </row>
